--- a/NformTester/NformTester/Keywordscripts/600.10.20.30_ConfigurationOnDevice_properties.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.30_ConfigurationOnDevice_properties.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8046" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8046" uniqueCount="857">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3807,6 +3807,10 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
@@ -4766,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166:D167"/>
+    <sheetView tabSelected="1" topLeftCell="B199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5611,7 +5615,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>795</v>
@@ -6371,7 +6375,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>795</v>
@@ -7131,7 +7135,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>795</v>
@@ -8163,7 +8167,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>795</v>
@@ -9504,7 +9508,7 @@
         <v>181</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>795</v>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.30_ConfigurationOnDevice_properties.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.30_ConfigurationOnDevice_properties.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8046" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="859">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3742,10 +3742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$SNMP_GXT_2$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3758,7 +3754,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_5_NAME$</t>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_5$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3766,59 +3817,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_1_NAME$</t>
+    <t>$NAME_SNMP_GXT_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>;</t>
+    <t>Pre-condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3977,7 +3984,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3988,8 +3995,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4037,10 +4047,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4770,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4788,10 +4803,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4833,10 +4848,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -4858,10 +4873,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4893,10 +4908,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -4924,7 +4939,7 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B5" s="10">
         <v>41743</v>
@@ -4949,10 +4964,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -5011,7 +5026,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="5">
@@ -5040,7 +5055,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5">
@@ -5243,7 +5258,7 @@
         <v>833</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>791</v>
@@ -5457,6 +5472,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>858</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -5704,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -6206,7 +6227,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -6306,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -6375,7 +6396,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>795</v>
@@ -6464,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6966,7 +6987,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -7778,7 +7799,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>19</v>
@@ -7809,7 +7830,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>19</v>
@@ -7840,7 +7861,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>756</v>
@@ -7863,7 +7884,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>794</v>
@@ -7890,7 +7911,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>794</v>
@@ -7998,7 +8019,7 @@
         <v>4</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -8098,7 +8119,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -8256,7 +8277,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -9100,7 +9121,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>19</v>
@@ -9131,7 +9152,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>19</v>
@@ -9293,7 +9314,7 @@
         <v>4</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.30_ConfigurationOnDevice_properties.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.30_ConfigurationOnDevice_properties.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1204,7 +1204,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3813,10 +3813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_4$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$NAME_SNMP_GXT_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3826,6 +3822,10 @@
   </si>
   <si>
     <t>Pre_default</t>
+  </si>
+  <si>
+    <t>$SNMP_invalid$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4053,10 +4053,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4499,7 +4499,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4785,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+    <sheetView tabSelected="1" topLeftCell="C124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5473,10 +5473,10 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>857</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>858</v>
       </c>
       <c r="C23" s="5">
         <v>22</v>
@@ -6327,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -9314,7 +9314,7 @@
         <v>4</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
